--- a/story_xlsx_files_postpilotiiedits/22.xlsx
+++ b/story_xlsx_files_postpilotiiedits/22.xlsx
@@ -192,7 +192,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>“O</t>
+      <t>“Yes, I’ll marry you!</t>
     </r>
     <r>
       <rPr>
@@ -200,7 +200,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">f course yes, Sven!” </t>
+      <t xml:space="preserve">” </t>
     </r>
   </si>
   <si>

--- a/story_xlsx_files_postpilotiiedits/22.xlsx
+++ b/story_xlsx_files_postpilotiiedits/22.xlsx
@@ -55,10 +55,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">They had only been dating for 11 months and this had been the first time he had met her family. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">They were pressed for time at the airport with only an hour and 15 minutes until their flight would take off to go back to the US, but they already had their online boarding passes and were without checked luggage. </t>
+    <t xml:space="preserve">They had only been dating for 11 months, and this had been the first time he had met her family. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They were pressed for time at the airport, with only an hour and 15 minutes until their flight would take off to go back to the US, but they already had their online boarding passes and were without luggage that needed to be checked. </t>
   </si>
   <si>
     <r>
@@ -67,7 +67,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>Isabel stopped to rummage through her purse to look for her phone, and, meanwhile, Sven turned his back to her and took the velvet box out of his backpack, opening it to look at the ring he had bought her.</t>
+      <t>Isabel stopped to rummage through her purse for her phone, and, meanwhile, Sven turned his back to her and took a small, velvet box out of his backpack, opening it to look at the ring he had bought her.</t>
     </r>
   </si>
   <si>
@@ -110,7 +110,7 @@
     <t xml:space="preserve">Luckily, at the same time, there was a stall in the line because someone ahead of them had a suspicious amount of metal pieces on his person. </t>
   </si>
   <si>
-    <t>Sven had to hold the growing mound of objects Isabel pulled from her bag until she unearthed the laptop and set it in a bin.</t>
+    <t>Sven held the growing mound of objects Isabel pulled from her bag until she unearthed the laptop and set it in a bin.</t>
   </si>
   <si>
     <t>She then gave her bag to Sven, unstrapped her heels, and took the bag back from Sven.</t>
@@ -125,10 +125,10 @@
     <t xml:space="preserve">The security guard asked Sven to wait. </t>
   </si>
   <si>
-    <t>After looking at the monitor, the security guard said, “Sir, please empty your pockets,”.</t>
-  </si>
-  <si>
-    <t>Isabel, shoeless and wrinkling her eyebrows at Sven, looked at him expectantly.</t>
+    <t>After looking at the monitor, the security guard said, “Sir, please empty your pockets.”</t>
+  </si>
+  <si>
+    <t>Isabel, shoeless, wrinkled her eyebrows and looked at him expectantly.</t>
   </si>
   <si>
     <r>
@@ -169,7 +169,7 @@
     <t>Isabel didn’t know what to do since she was far too shy to respond in front of all the people around.</t>
   </si>
   <si>
-    <t>Without responding to Sven, she frantically grabbed her and Sven’s shoes, leaving Sven to retrieve the rest, and she quickly walked onto the concourse.</t>
+    <t>Without responding to Sven, she  let go of his hand and frantically grabbed her and Sven’s shoes from the conveyor belt, leaving Sven to retrieve the rest of their things, and she quickly walked onto the concourse.</t>
   </si>
   <si>
     <t>Sven, terrified, grabbed everything and hurried after Isabel onto the concourse shoeless.</t>
@@ -204,7 +204,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">They dropped their belongings and hugged, and Sven put the ring onto Isabel’s finger. </t>
+    <t xml:space="preserve">Sven dropped their belongings, and they hugged, and Sven put the ring onto Isabel’s finger. </t>
   </si>
   <si>
     <t xml:space="preserve">“Isabel, you scared me!” he said. </t>
@@ -213,7 +213,7 @@
     <t>After getting their shoes back on, they practically floated to gate C40.</t>
   </si>
   <si>
-    <t>Sven was so happy he even high-fived a confused shoe-shine attendant as they passed.</t>
+    <t>Sven was so happy that he even high-fived a confused shoe-shine attendant as they passed.</t>
   </si>
   <si>
     <t xml:space="preserve">Isabel texted her best friend telling her the news as they walked. </t>
@@ -1617,7 +1617,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" ht="164.05" customHeight="1">
+    <row r="4" ht="188.05" customHeight="1">
       <c r="A4" t="s" s="8">
         <v>6</v>
       </c>
@@ -1767,7 +1767,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" ht="241.8" customHeight="1">
+    <row r="14" ht="223.8" customHeight="1">
       <c r="A14" t="s" s="12">
         <v>16</v>
       </c>
@@ -1857,7 +1857,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="187.8" customHeight="1">
+    <row r="20" ht="133.8" customHeight="1">
       <c r="A20" t="s" s="12">
         <v>22</v>
       </c>
@@ -1947,7 +1947,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="277.8" customHeight="1">
+    <row r="26" ht="367.8" customHeight="1">
       <c r="A26" t="s" s="12">
         <v>28</v>
       </c>
